--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251016_201510.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251016_201510.xlsx
@@ -5011,7 +5011,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
